--- a/02_要求分析/システムテスト仕様書_07.xlsx
+++ b/02_要求分析/システムテスト仕様書_07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2786\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\02_要求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{FE2537E3-04E7-40CB-9BAA-3742C0BFAA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C17A2F7-9D14-4D86-9F17-1BC9C2254A5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0E909-BA6F-4FBE-BF04-A5DBD34D7DD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="795" windowWidth="12180" windowHeight="10005" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="945" windowWidth="17700" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>タイトル：ＸＸＸシステム テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -192,12 +190,26 @@
 ２．ゲームメソッドを実行し、審判をeasyにする
 ３．一致するまで数字とスートを入力する。</t>
   </si>
+  <si>
+    <t>※ヒントが出るかは統合テストで
+保障されているものとする。</t>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -245,6 +257,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,11 +492,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,55 +558,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,7 +908,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -896,106 +917,106 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1062,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1087,75 +1108,75 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="26"/>
+    </row>
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1183,31 +1204,31 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="23"/>
+    </row>
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="3"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
@@ -1229,31 +1250,31 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="23"/>
+    </row>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -1275,31 +1296,31 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="23"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -1321,31 +1342,31 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="23"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
@@ -1367,31 +1388,31 @@
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="23"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -1413,31 +1434,31 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="23"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -1459,31 +1480,31 @@
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="23"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
@@ -1505,31 +1526,31 @@
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="23"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
@@ -1551,31 +1572,31 @@
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="23"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
@@ -1597,142 +1618,92 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="23"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="B2:AS3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:S12"/>
@@ -1749,22 +1720,72 @@
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AP10:AS10"/>
     <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1784,7 +1805,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -1793,106 +1814,106 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1959,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1984,73 +2005,73 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="26"/>
+    </row>
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
@@ -2072,31 +2093,31 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="23"/>
+    </row>
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="3"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
@@ -2118,31 +2139,31 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="23"/>
+    </row>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -2164,31 +2185,31 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="23"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -2210,31 +2231,31 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="23"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
@@ -2256,31 +2277,31 @@
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="23"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -2302,31 +2323,31 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="23"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -2348,31 +2369,31 @@
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="23"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
@@ -2394,31 +2415,31 @@
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="23"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
@@ -2440,31 +2461,31 @@
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="23"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
@@ -2486,108 +2507,126 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="23"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="B2:AS3"/>
@@ -2604,56 +2643,38 @@
     <mergeCell ref="E10:S10"/>
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -2669,119 +2690,121 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9:AS9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="5" max="44" width="3.625" style="1"/>
+    <col min="45" max="45" width="19.375" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2827,7 +2850,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2873,76 +2896,76 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="26"/>
+    </row>
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -2969,34 +2992,34 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="23"/>
+    </row>
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -3023,31 +3046,33 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="23"/>
+    </row>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -3069,31 +3094,31 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="23"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -3115,31 +3140,31 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="23"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
@@ -3161,31 +3186,31 @@
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="23"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -3207,31 +3232,31 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="23"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -3253,31 +3278,31 @@
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="23"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
@@ -3299,31 +3324,31 @@
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="23"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
@@ -3345,31 +3370,31 @@
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="23"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
@@ -3391,84 +3416,150 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="23"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
     <mergeCell ref="AL15:AO15"/>
     <mergeCell ref="AP15:AS15"/>
     <mergeCell ref="B16:C16"/>
@@ -3485,80 +3576,14 @@
     <mergeCell ref="Y15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3568,6 +3593,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3751,22 +3791,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC103151-D75B-4D1C-971B-4F7A83C8DA00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3782,21 +3824,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>